--- a/data/pca/factorExposure/factorExposure_2017-04-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-04-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02295589449365021</v>
+        <v>-0.01004211213394203</v>
       </c>
       <c r="C2">
-        <v>0.007334507128438755</v>
+        <v>-0.04210763282174663</v>
       </c>
       <c r="D2">
-        <v>-0.03084547569077754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02939388780443815</v>
+      </c>
+      <c r="E2">
+        <v>0.03579706613460294</v>
+      </c>
+      <c r="F2">
+        <v>-0.009544215746793089</v>
+      </c>
+      <c r="G2">
+        <v>-0.0953059436073853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01922111820654404</v>
+        <v>-0.04127921026137472</v>
       </c>
       <c r="C3">
-        <v>-0.01419192883285453</v>
+        <v>-0.1017388430644021</v>
       </c>
       <c r="D3">
-        <v>-0.1055619782216021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.0179064467216702</v>
+      </c>
+      <c r="E3">
+        <v>0.100149457802623</v>
+      </c>
+      <c r="F3">
+        <v>-0.004783790200195048</v>
+      </c>
+      <c r="G3">
+        <v>-0.1691048756559696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02522332434524881</v>
+        <v>-0.05581657152977324</v>
       </c>
       <c r="C4">
-        <v>0.001095088167658038</v>
+        <v>-0.06788290479725634</v>
       </c>
       <c r="D4">
-        <v>-0.0842799716271579</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02443695535944763</v>
+      </c>
+      <c r="E4">
+        <v>0.03109813420364821</v>
+      </c>
+      <c r="F4">
+        <v>-0.01147760476265836</v>
+      </c>
+      <c r="G4">
+        <v>-0.09977995889854031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01211345550843632</v>
+        <v>-0.03712546701380376</v>
       </c>
       <c r="C6">
-        <v>0.01075413510007526</v>
+        <v>-0.05198167473453168</v>
       </c>
       <c r="D6">
-        <v>-0.08217027120103775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01695358195758129</v>
+      </c>
+      <c r="E6">
+        <v>0.03654800821514345</v>
+      </c>
+      <c r="F6">
+        <v>-0.008272910694515963</v>
+      </c>
+      <c r="G6">
+        <v>-0.08442064125422774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.007916435603017585</v>
+        <v>-0.02074366444225061</v>
       </c>
       <c r="C7">
-        <v>0.009828705363551394</v>
+        <v>-0.03951200763798002</v>
       </c>
       <c r="D7">
-        <v>-0.03372135656055755</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01399006689961378</v>
+      </c>
+      <c r="E7">
+        <v>0.005843403959162688</v>
+      </c>
+      <c r="F7">
+        <v>0.002864335698160649</v>
+      </c>
+      <c r="G7">
+        <v>-0.1211356433383468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0002919122089055534</v>
+        <v>-0.003810811224267422</v>
       </c>
       <c r="C8">
-        <v>0.001254896606497572</v>
+        <v>-0.0243441753756585</v>
       </c>
       <c r="D8">
-        <v>-0.0009660703612032249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.003886281117786789</v>
+      </c>
+      <c r="E8">
+        <v>0.02778273541860227</v>
+      </c>
+      <c r="F8">
+        <v>-0.007079203332612707</v>
+      </c>
+      <c r="G8">
+        <v>-0.06908960497902114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01914576381758426</v>
+        <v>-0.03375782353984982</v>
       </c>
       <c r="C9">
-        <v>-0.005133473001198338</v>
+        <v>-0.04915904074532994</v>
       </c>
       <c r="D9">
-        <v>-0.06065780316194756</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01644307375135054</v>
+      </c>
+      <c r="E9">
+        <v>0.02014612028277581</v>
+      </c>
+      <c r="F9">
+        <v>-0.007817946202771901</v>
+      </c>
+      <c r="G9">
+        <v>-0.1001173887916643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08228933708856717</v>
+        <v>-0.09833612144219282</v>
       </c>
       <c r="C10">
-        <v>-0.1706566822385168</v>
+        <v>0.1819912298128996</v>
       </c>
       <c r="D10">
-        <v>0.09624577063698116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01522373965902852</v>
+      </c>
+      <c r="E10">
+        <v>0.02058606989277828</v>
+      </c>
+      <c r="F10">
+        <v>0.02274373754455644</v>
+      </c>
+      <c r="G10">
+        <v>-0.05878879755443008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-6.940761699813234e-05</v>
+        <v>-0.03419390038994086</v>
       </c>
       <c r="C11">
-        <v>0.002312851789480485</v>
+        <v>-0.05421224865210893</v>
       </c>
       <c r="D11">
-        <v>-0.0558983736463601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002562469241417837</v>
+      </c>
+      <c r="E11">
+        <v>0.01808059742879516</v>
+      </c>
+      <c r="F11">
+        <v>-0.02144621087149353</v>
+      </c>
+      <c r="G11">
+        <v>-0.09102627133067358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.004599341063484865</v>
+        <v>-0.03572573067911084</v>
       </c>
       <c r="C12">
-        <v>0.003611066824632581</v>
+        <v>-0.04883607348313493</v>
       </c>
       <c r="D12">
-        <v>-0.0481817423216199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006593795703120861</v>
+      </c>
+      <c r="E12">
+        <v>0.009197729115113152</v>
+      </c>
+      <c r="F12">
+        <v>-0.002710854513995505</v>
+      </c>
+      <c r="G12">
+        <v>-0.08290969804740607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02492391284180404</v>
+        <v>-0.01553786919411874</v>
       </c>
       <c r="C13">
-        <v>-0.001231339479981353</v>
+        <v>-0.04206289700969369</v>
       </c>
       <c r="D13">
-        <v>-0.03920396607591067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02649505567286084</v>
+      </c>
+      <c r="E13">
+        <v>0.0366978231131414</v>
+      </c>
+      <c r="F13">
+        <v>-0.006219479282872003</v>
+      </c>
+      <c r="G13">
+        <v>-0.136718372964697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008359645989516979</v>
+        <v>-0.008624830940665355</v>
       </c>
       <c r="C14">
-        <v>-0.000817727259392222</v>
+        <v>-0.02911462662127613</v>
       </c>
       <c r="D14">
-        <v>-0.01676609848273954</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01003254463973649</v>
+      </c>
+      <c r="E14">
+        <v>0.006464179623981822</v>
+      </c>
+      <c r="F14">
+        <v>0.007077183516992542</v>
+      </c>
+      <c r="G14">
+        <v>-0.1037942445778295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.002354345823141625</v>
+        <v>-0.03267919078910449</v>
       </c>
       <c r="C16">
-        <v>-0.00264000561368907</v>
+        <v>-0.04716854849645719</v>
       </c>
       <c r="D16">
-        <v>-0.04319701989149322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.00206907863211016</v>
+      </c>
+      <c r="E16">
+        <v>0.01558638315427184</v>
+      </c>
+      <c r="F16">
+        <v>-0.002789571960612641</v>
+      </c>
+      <c r="G16">
+        <v>-0.09233996351377351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01186734371382934</v>
+        <v>-0.02178231977318387</v>
       </c>
       <c r="C19">
-        <v>0.005398948207103882</v>
+        <v>-0.05318499488500034</v>
       </c>
       <c r="D19">
-        <v>-0.04592489004146152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01899745197000064</v>
+      </c>
+      <c r="E19">
+        <v>0.07662910096360788</v>
+      </c>
+      <c r="F19">
+        <v>-0.02190478764756998</v>
+      </c>
+      <c r="G19">
+        <v>-0.1332646722853326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.008242240414705736</v>
+        <v>-0.01471681479940869</v>
       </c>
       <c r="C20">
-        <v>0.007473082628255892</v>
+        <v>-0.04168531845589186</v>
       </c>
       <c r="D20">
-        <v>-0.03619089037972547</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0143485176928759</v>
+      </c>
+      <c r="E20">
+        <v>0.03666045002946233</v>
+      </c>
+      <c r="F20">
+        <v>0.0109958015031363</v>
+      </c>
+      <c r="G20">
+        <v>-0.1106606644051058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01483950801797315</v>
+        <v>-0.01216350293808691</v>
       </c>
       <c r="C21">
-        <v>-6.722115599863701e-05</v>
+        <v>-0.03984535653381691</v>
       </c>
       <c r="D21">
-        <v>-0.03228408780450021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01897885259064455</v>
+      </c>
+      <c r="E21">
+        <v>0.05022432164272698</v>
+      </c>
+      <c r="F21">
+        <v>-0.002296659764201469</v>
+      </c>
+      <c r="G21">
+        <v>-0.1289663176402977</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001482103260089961</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0002374553061163875</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0006239892450278922</v>
+      </c>
+      <c r="E22">
+        <v>0.003546192477897725</v>
+      </c>
+      <c r="F22">
+        <v>-0.00188990983588352</v>
+      </c>
+      <c r="G22">
+        <v>-0.005548326725964937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.001487641598928926</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0002490245085584107</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0006227753668814831</v>
+      </c>
+      <c r="E23">
+        <v>0.003533331720785907</v>
+      </c>
+      <c r="F23">
+        <v>-0.001895145480159417</v>
+      </c>
+      <c r="G23">
+        <v>-0.00543913553350205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.00107790299917062</v>
+        <v>-0.02813168818056581</v>
       </c>
       <c r="C24">
-        <v>0.009812793504743202</v>
+        <v>-0.05144923118627977</v>
       </c>
       <c r="D24">
-        <v>-0.04737825687056942</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007336831875936913</v>
+      </c>
+      <c r="E24">
+        <v>0.01246710905249532</v>
+      </c>
+      <c r="F24">
+        <v>-0.01314814845164358</v>
+      </c>
+      <c r="G24">
+        <v>-0.09193481548702007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01391863390274842</v>
+        <v>-0.04228504687449076</v>
       </c>
       <c r="C25">
-        <v>-0.00362552280687787</v>
+        <v>-0.0588604118328144</v>
       </c>
       <c r="D25">
-        <v>-0.06005394797434579</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01128250473573321</v>
+      </c>
+      <c r="E25">
+        <v>0.004000785191865676</v>
+      </c>
+      <c r="F25">
+        <v>-0.007033944949374205</v>
+      </c>
+      <c r="G25">
+        <v>-0.1002170985367667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02176182730908243</v>
+        <v>-0.01430356322294699</v>
       </c>
       <c r="C26">
-        <v>0.006240822307107239</v>
+        <v>-0.01147401734654048</v>
       </c>
       <c r="D26">
-        <v>-0.0007254691588649189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02403424809598877</v>
+      </c>
+      <c r="E26">
+        <v>0.009271784792793553</v>
+      </c>
+      <c r="F26">
+        <v>0.009395556038791964</v>
+      </c>
+      <c r="G26">
+        <v>-0.08272867396640544</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1175114488747044</v>
+        <v>-0.1242905676808849</v>
       </c>
       <c r="C28">
-        <v>-0.2121893014876677</v>
+        <v>0.2381426600663115</v>
       </c>
       <c r="D28">
-        <v>0.1194511044353155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006264985188737703</v>
+      </c>
+      <c r="E28">
+        <v>0.008849454522424159</v>
+      </c>
+      <c r="F28">
+        <v>0.0153605630076061</v>
+      </c>
+      <c r="G28">
+        <v>-0.04453542656513233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01096990232490419</v>
+        <v>-0.009547303225783128</v>
       </c>
       <c r="C29">
-        <v>-0.00654518396600534</v>
+        <v>-0.02324884181515634</v>
       </c>
       <c r="D29">
-        <v>-0.01943656904196225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009020710906756284</v>
+      </c>
+      <c r="E29">
+        <v>0.003608739806276198</v>
+      </c>
+      <c r="F29">
+        <v>0.0154524861554749</v>
+      </c>
+      <c r="G29">
+        <v>-0.09656383466341244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01996196385337666</v>
+        <v>-0.0418541896025128</v>
       </c>
       <c r="C30">
-        <v>0.01524468293204039</v>
+        <v>-0.07053182914673339</v>
       </c>
       <c r="D30">
-        <v>-0.103459537084503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02894817458948181</v>
+      </c>
+      <c r="E30">
+        <v>0.060222449144182</v>
+      </c>
+      <c r="F30">
+        <v>-0.04581550225336504</v>
+      </c>
+      <c r="G30">
+        <v>-0.1311956182524951</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.0170936642614187</v>
+        <v>-0.05286691895264925</v>
       </c>
       <c r="C31">
-        <v>-0.02202733768335427</v>
+        <v>-0.03781667460103201</v>
       </c>
       <c r="D31">
-        <v>-0.03438294908922467</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003851987770948067</v>
+      </c>
+      <c r="E31">
+        <v>0.0002774205495656034</v>
+      </c>
+      <c r="F31">
+        <v>0.04035037544957769</v>
+      </c>
+      <c r="G31">
+        <v>-0.0990848802923323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001313327526518271</v>
+        <v>-0.002724839745797634</v>
       </c>
       <c r="C32">
-        <v>-0.01534556589620778</v>
+        <v>-0.02418253061212454</v>
       </c>
       <c r="D32">
-        <v>-0.005932922386024264</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.003070706245129254</v>
+      </c>
+      <c r="E32">
+        <v>0.03333857458941569</v>
+      </c>
+      <c r="F32">
+        <v>-0.04212925514348337</v>
+      </c>
+      <c r="G32">
+        <v>-0.08271535772188554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01251774338588063</v>
+        <v>-0.02770902166216718</v>
       </c>
       <c r="C33">
-        <v>0.0007830478471809008</v>
+        <v>-0.0510083570986922</v>
       </c>
       <c r="D33">
-        <v>-0.0445425864209918</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01583192602292397</v>
+      </c>
+      <c r="E33">
+        <v>0.04359892497515176</v>
+      </c>
+      <c r="F33">
+        <v>-0.01665676278820707</v>
+      </c>
+      <c r="G33">
+        <v>-0.1612316548588846</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.0005543363142253225</v>
+        <v>-0.03975688096665241</v>
       </c>
       <c r="C34">
-        <v>-0.01283665704051726</v>
+        <v>-0.06005385805636596</v>
       </c>
       <c r="D34">
-        <v>-0.05869568400452305</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004457426588029906</v>
+      </c>
+      <c r="E34">
+        <v>0.007820568596395447</v>
+      </c>
+      <c r="F34">
+        <v>-0.02141005771972881</v>
+      </c>
+      <c r="G34">
+        <v>-0.09475833523223778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01563930930238856</v>
+        <v>-0.01609792645435164</v>
       </c>
       <c r="C36">
-        <v>-0.00699676637101728</v>
+        <v>-0.009949865215719108</v>
       </c>
       <c r="D36">
-        <v>-0.006419477467176379</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01251676288747154</v>
+      </c>
+      <c r="E36">
+        <v>0.008249654553581303</v>
+      </c>
+      <c r="F36">
+        <v>0.006902613260293892</v>
+      </c>
+      <c r="G36">
+        <v>-0.09078891780901381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006118512169884772</v>
+        <v>-0.03125343392696674</v>
       </c>
       <c r="C38">
-        <v>-0.02698516445270169</v>
+        <v>-0.03100697359573226</v>
       </c>
       <c r="D38">
-        <v>-0.04397881518544568</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007350582179635504</v>
+      </c>
+      <c r="E38">
+        <v>0.007303315879152618</v>
+      </c>
+      <c r="F38">
+        <v>0.01807495395518777</v>
+      </c>
+      <c r="G38">
+        <v>-0.08787451900109969</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.003476759168433877</v>
+        <v>-0.03663922182476934</v>
       </c>
       <c r="C39">
-        <v>0.02696146260459414</v>
+        <v>-0.08045678486199964</v>
       </c>
       <c r="D39">
-        <v>-0.1019058072801403</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01164519013821064</v>
+      </c>
+      <c r="E39">
+        <v>0.02868788069361639</v>
+      </c>
+      <c r="F39">
+        <v>-0.02379603836197892</v>
+      </c>
+      <c r="G39">
+        <v>-0.08933853155104433</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01443782771059719</v>
+        <v>-0.01344763550774371</v>
       </c>
       <c r="C40">
-        <v>-0.004326052523586895</v>
+        <v>-0.04097583827123522</v>
       </c>
       <c r="D40">
-        <v>-0.04146956184820288</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01494173981326258</v>
+      </c>
+      <c r="E40">
+        <v>0.0324860383622833</v>
+      </c>
+      <c r="F40">
+        <v>0.0068780412141121</v>
+      </c>
+      <c r="G40">
+        <v>-0.1169859129318389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01287608857880983</v>
+        <v>-0.02069560167136288</v>
       </c>
       <c r="C41">
-        <v>-0.01809142180607133</v>
+        <v>-0.002296447224348884</v>
       </c>
       <c r="D41">
-        <v>0.01135175317917501</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.00441417058425591</v>
+      </c>
+      <c r="E41">
+        <v>0.007205604587582986</v>
+      </c>
+      <c r="F41">
+        <v>0.01519815194177154</v>
+      </c>
+      <c r="G41">
+        <v>-0.08556493255149458</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.07548145448458402</v>
+        <v>-0.009292068026853017</v>
       </c>
       <c r="C42">
-        <v>0.0595530132271308</v>
+        <v>-0.03416429386229521</v>
       </c>
       <c r="D42">
-        <v>-0.1614773653264117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08977449795079789</v>
+      </c>
+      <c r="E42">
+        <v>0.01764942784409394</v>
+      </c>
+      <c r="F42">
+        <v>0.04743349368358053</v>
+      </c>
+      <c r="G42">
+        <v>0.04099458356751913</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01302789008878775</v>
+        <v>-0.03536259540372763</v>
       </c>
       <c r="C43">
-        <v>-0.01668020412136056</v>
+        <v>-0.01837567159297369</v>
       </c>
       <c r="D43">
-        <v>0.006352306118312005</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.005872015646767107</v>
+      </c>
+      <c r="E43">
+        <v>0.02122544413059946</v>
+      </c>
+      <c r="F43">
+        <v>0.006137712880407583</v>
+      </c>
+      <c r="G43">
+        <v>-0.1210294363208766</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002542321776754635</v>
+        <v>-0.0133758122299064</v>
       </c>
       <c r="C44">
-        <v>0.001813565580546473</v>
+        <v>-0.05864693518504206</v>
       </c>
       <c r="D44">
-        <v>-0.05566433670506617</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007004085719167431</v>
+      </c>
+      <c r="E44">
+        <v>0.02389908498187086</v>
+      </c>
+      <c r="F44">
+        <v>0.002596700665255361</v>
+      </c>
+      <c r="G44">
+        <v>-0.1116217668028956</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01046530310643096</v>
+        <v>-0.007893029095089366</v>
       </c>
       <c r="C46">
-        <v>0.001015377564078322</v>
+        <v>-0.01750708205550006</v>
       </c>
       <c r="D46">
-        <v>-0.002337706465338707</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01271917805545031</v>
+      </c>
+      <c r="E46">
+        <v>0.003665517434166955</v>
+      </c>
+      <c r="F46">
+        <v>0.01513294260341388</v>
+      </c>
+      <c r="G46">
+        <v>-0.1056092856983293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.01194524238650178</v>
+        <v>-0.07724556155308519</v>
       </c>
       <c r="C47">
-        <v>-0.0259648811396931</v>
+        <v>-0.06840396105743336</v>
       </c>
       <c r="D47">
-        <v>-0.07265771382392289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004884680391908779</v>
+      </c>
+      <c r="E47">
+        <v>-0.006549633732283997</v>
+      </c>
+      <c r="F47">
+        <v>0.05382109097417021</v>
+      </c>
+      <c r="G47">
+        <v>-0.08511665595447791</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.007545277522582636</v>
+        <v>-0.01921057689437582</v>
       </c>
       <c r="C48">
-        <v>-0.01177787508282259</v>
+        <v>-0.01278974265047958</v>
       </c>
       <c r="D48">
-        <v>-0.01988286878345833</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002100045303239164</v>
+      </c>
+      <c r="E48">
+        <v>0.004551000949172089</v>
+      </c>
+      <c r="F48">
+        <v>0.01907446694666147</v>
+      </c>
+      <c r="G48">
+        <v>-0.09733078335843298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.01903542125164207</v>
+        <v>-0.07529316394091597</v>
       </c>
       <c r="C50">
-        <v>-0.0357290560774791</v>
+        <v>-0.07200865458654185</v>
       </c>
       <c r="D50">
-        <v>-0.07050885775887519</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002158106883684935</v>
+      </c>
+      <c r="E50">
+        <v>-0.003264603915633347</v>
+      </c>
+      <c r="F50">
+        <v>0.05592874640397952</v>
+      </c>
+      <c r="G50">
+        <v>-0.09352516755393828</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007922304391022886</v>
+        <v>-0.01480068777864604</v>
       </c>
       <c r="C51">
-        <v>-0.002537362410956946</v>
+        <v>-0.03584607667754364</v>
       </c>
       <c r="D51">
-        <v>-0.01898400243536929</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0106095306912076</v>
+      </c>
+      <c r="E51">
+        <v>0.02536576364854042</v>
+      </c>
+      <c r="F51">
+        <v>-0.02558260825010561</v>
+      </c>
+      <c r="G51">
+        <v>-0.1231322788967384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.01961691194942775</v>
+        <v>-0.08138382825866418</v>
       </c>
       <c r="C53">
-        <v>-0.03526806397006264</v>
+        <v>-0.0861045140190454</v>
       </c>
       <c r="D53">
-        <v>-0.1348139229969767</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003328811303825466</v>
+      </c>
+      <c r="E53">
+        <v>-0.0254230946073637</v>
+      </c>
+      <c r="F53">
+        <v>0.06286937539348821</v>
+      </c>
+      <c r="G53">
+        <v>-0.09356471815064935</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01176547975116709</v>
+        <v>-0.03209036970917439</v>
       </c>
       <c r="C54">
-        <v>-0.02969531972914737</v>
+        <v>-0.01858074578373191</v>
       </c>
       <c r="D54">
-        <v>0.006072911378301796</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001486268780854634</v>
+      </c>
+      <c r="E54">
+        <v>0.01740129142931137</v>
+      </c>
+      <c r="F54">
+        <v>0.004726699670597184</v>
+      </c>
+      <c r="G54">
+        <v>-0.1078468483179105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.01134492942313058</v>
+        <v>-0.07187473006948433</v>
       </c>
       <c r="C55">
-        <v>-0.02204732562421095</v>
+        <v>-0.06929129232130173</v>
       </c>
       <c r="D55">
-        <v>-0.1067044642904106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.004845628365876854</v>
+      </c>
+      <c r="E55">
+        <v>-0.02277660705472042</v>
+      </c>
+      <c r="F55">
+        <v>0.06314430822747535</v>
+      </c>
+      <c r="G55">
+        <v>-0.07144008764481988</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.02094068345826824</v>
+        <v>-0.1364017054229573</v>
       </c>
       <c r="C56">
-        <v>-0.04601519795312775</v>
+        <v>-0.1082119500367719</v>
       </c>
       <c r="D56">
-        <v>-0.1609790795008079</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01233410771984128</v>
+      </c>
+      <c r="E56">
+        <v>-0.03241234144623421</v>
+      </c>
+      <c r="F56">
+        <v>0.08044661744517813</v>
+      </c>
+      <c r="G56">
+        <v>-0.04649880381144521</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02365768238338296</v>
+        <v>-0.005471445694938311</v>
       </c>
       <c r="C57">
-        <v>0.004487399820276788</v>
+        <v>-0.00706729203648275</v>
       </c>
       <c r="D57">
-        <v>-0.03501610189889858</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02326746584848622</v>
+      </c>
+      <c r="E57">
+        <v>0.025356812770236</v>
+      </c>
+      <c r="F57">
+        <v>-0.01028566149042383</v>
+      </c>
+      <c r="G57">
+        <v>-0.02630019889166224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01631298021982535</v>
+        <v>-0.05219598564291482</v>
       </c>
       <c r="C58">
-        <v>-0.02568312322558262</v>
+        <v>-0.05274323204164565</v>
       </c>
       <c r="D58">
-        <v>-0.1481102660004954</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02105818425635146</v>
+      </c>
+      <c r="E58">
+        <v>0.9128395690532709</v>
+      </c>
+      <c r="F58">
+        <v>0.2749861882209505</v>
+      </c>
+      <c r="G58">
+        <v>0.2212080331641992</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1274497401820625</v>
+        <v>-0.1598998296623509</v>
       </c>
       <c r="C59">
-        <v>-0.2407407407932089</v>
+        <v>0.2046704413620783</v>
       </c>
       <c r="D59">
-        <v>0.1021691178560792</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01166657356934594</v>
+      </c>
+      <c r="E59">
+        <v>0.02023876943920976</v>
+      </c>
+      <c r="F59">
+        <v>0.004186116402568552</v>
+      </c>
+      <c r="G59">
+        <v>-0.03853907584932036</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1061744795472752</v>
+        <v>-0.2890437436002147</v>
       </c>
       <c r="C60">
-        <v>-0.1597501835262159</v>
+        <v>-0.1060954907140074</v>
       </c>
       <c r="D60">
-        <v>-0.1432634101980327</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01107756553192884</v>
+      </c>
+      <c r="E60">
+        <v>-0.00224384573724828</v>
+      </c>
+      <c r="F60">
+        <v>-0.3364649842037588</v>
+      </c>
+      <c r="G60">
+        <v>0.1667664260111955</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002536638377890007</v>
+        <v>-0.03887883393137537</v>
       </c>
       <c r="C61">
-        <v>0.002954257148903187</v>
+        <v>-0.06686708908206579</v>
       </c>
       <c r="D61">
-        <v>-0.07752354332786202</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005521997586409149</v>
+      </c>
+      <c r="E61">
+        <v>0.0233359488498278</v>
+      </c>
+      <c r="F61">
+        <v>-0.01516614631534951</v>
+      </c>
+      <c r="G61">
+        <v>-0.09555379714051758</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007715600285108074</v>
+        <v>-0.01554278682068874</v>
       </c>
       <c r="C63">
-        <v>0.002070715947861922</v>
+        <v>-0.03055149179375685</v>
       </c>
       <c r="D63">
-        <v>-0.02473910644305349</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008540565072184052</v>
+      </c>
+      <c r="E63">
+        <v>0.003230527460730863</v>
+      </c>
+      <c r="F63">
+        <v>0.01907567379938557</v>
+      </c>
+      <c r="G63">
+        <v>-0.09388436576593795</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.01874928766927662</v>
+        <v>-0.04878505966985373</v>
       </c>
       <c r="C64">
-        <v>-0.02341382191517103</v>
+        <v>-0.04708444730067366</v>
       </c>
       <c r="D64">
-        <v>-0.06303264790344147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006451416620306135</v>
+      </c>
+      <c r="E64">
+        <v>0.008133492182024797</v>
+      </c>
+      <c r="F64">
+        <v>-0.007719432963402086</v>
+      </c>
+      <c r="G64">
+        <v>-0.102511842442619</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.02248843053271704</v>
+        <v>-0.07515265874760778</v>
       </c>
       <c r="C65">
-        <v>-0.004548182711543914</v>
+        <v>-0.05884890648897271</v>
       </c>
       <c r="D65">
-        <v>-0.1127411758397227</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01663939448837238</v>
+      </c>
+      <c r="E65">
+        <v>0.03911777998659959</v>
+      </c>
+      <c r="F65">
+        <v>-0.0301525486387374</v>
+      </c>
+      <c r="G65">
+        <v>-0.03996334877668246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.002743147781289944</v>
+        <v>-0.05140902931009323</v>
       </c>
       <c r="C66">
-        <v>0.02494262579805117</v>
+        <v>-0.1077092669739753</v>
       </c>
       <c r="D66">
-        <v>-0.1380135552142181</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01163836914037526</v>
+      </c>
+      <c r="E66">
+        <v>0.03984870628862987</v>
+      </c>
+      <c r="F66">
+        <v>-0.03625896455305841</v>
+      </c>
+      <c r="G66">
+        <v>-0.105135932424016</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.01859839039657726</v>
+        <v>-0.05433741455639086</v>
       </c>
       <c r="C67">
-        <v>-0.04322614822011187</v>
+        <v>-0.03412074053132787</v>
       </c>
       <c r="D67">
-        <v>-0.06263412941347571</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005905285836036105</v>
+      </c>
+      <c r="E67">
+        <v>-0.0009352651224237888</v>
+      </c>
+      <c r="F67">
+        <v>0.01699370404722711</v>
+      </c>
+      <c r="G67">
+        <v>-0.07700588820850106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1419838273724298</v>
+        <v>-0.1556428356769539</v>
       </c>
       <c r="C68">
-        <v>-0.22879523803004</v>
+        <v>0.2712432654336969</v>
       </c>
       <c r="D68">
-        <v>0.1520594942751859</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005681057821811041</v>
+      </c>
+      <c r="E68">
+        <v>0.01221873127462609</v>
+      </c>
+      <c r="F68">
+        <v>0.03647241700328538</v>
+      </c>
+      <c r="G68">
+        <v>-0.02879588850772278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.01399709231934911</v>
+        <v>-0.08275911044750651</v>
       </c>
       <c r="C69">
-        <v>-0.03773319543923113</v>
+        <v>-0.07034570867054275</v>
       </c>
       <c r="D69">
-        <v>-0.08034985805152293</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008839307145076757</v>
+      </c>
+      <c r="E69">
+        <v>-0.02111148030394083</v>
+      </c>
+      <c r="F69">
+        <v>0.03601301542408845</v>
+      </c>
+      <c r="G69">
+        <v>-0.1034089602789436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1108487701675048</v>
+        <v>-0.1404510299251074</v>
       </c>
       <c r="C71">
-        <v>-0.1904696620993458</v>
+        <v>0.2289681033144253</v>
       </c>
       <c r="D71">
-        <v>0.1002690379584043</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002735068614650239</v>
+      </c>
+      <c r="E71">
+        <v>0.03520259969783174</v>
+      </c>
+      <c r="F71">
+        <v>0.02299562366522957</v>
+      </c>
+      <c r="G71">
+        <v>-0.06786946183711032</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.007148804310278013</v>
+        <v>-0.08593604606378885</v>
       </c>
       <c r="C72">
-        <v>-0.02459704290741989</v>
+        <v>-0.0686107760089657</v>
       </c>
       <c r="D72">
-        <v>-0.1003846323416939</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008385902674921775</v>
+      </c>
+      <c r="E72">
+        <v>-0.006554289346573825</v>
+      </c>
+      <c r="F72">
+        <v>-0.04029900405262307</v>
+      </c>
+      <c r="G72">
+        <v>-0.090225781037341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1245320786476879</v>
+        <v>-0.3774608324837295</v>
       </c>
       <c r="C73">
-        <v>-0.1722620122349373</v>
+        <v>-0.1164131742511112</v>
       </c>
       <c r="D73">
-        <v>-0.2736126933850253</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02003246003081818</v>
+      </c>
+      <c r="E73">
+        <v>0.08061179466858882</v>
+      </c>
+      <c r="F73">
+        <v>-0.5731893480880217</v>
+      </c>
+      <c r="G73">
+        <v>0.2999512336071647</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.02071926192164583</v>
+        <v>-0.1046548762530351</v>
       </c>
       <c r="C74">
-        <v>-0.04792303372032643</v>
+        <v>-0.1098214486363521</v>
       </c>
       <c r="D74">
-        <v>-0.1768934339883369</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.00944769165867594</v>
+      </c>
+      <c r="E74">
+        <v>-0.008494083614357497</v>
+      </c>
+      <c r="F74">
+        <v>0.06898822782239133</v>
+      </c>
+      <c r="G74">
+        <v>-0.08391976231181449</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.05135409772142061</v>
+        <v>-0.2474726745914511</v>
       </c>
       <c r="C75">
-        <v>-0.1145381904419298</v>
+        <v>-0.151737226564807</v>
       </c>
       <c r="D75">
-        <v>-0.2955668357862457</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03075045640504478</v>
+      </c>
+      <c r="E75">
+        <v>-0.06995867030641258</v>
+      </c>
+      <c r="F75">
+        <v>0.1689336104799169</v>
+      </c>
+      <c r="G75">
+        <v>0.01245823983273318</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.02054452582530771</v>
+        <v>-0.1178544990142832</v>
       </c>
       <c r="C76">
-        <v>-0.06032024754251028</v>
+        <v>-0.1095863072901495</v>
       </c>
       <c r="D76">
-        <v>-0.2121903829930427</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01792603893313268</v>
+      </c>
+      <c r="E76">
+        <v>-0.02866730213739592</v>
+      </c>
+      <c r="F76">
+        <v>0.1055533450196645</v>
+      </c>
+      <c r="G76">
+        <v>-0.06133595625420923</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01901278449819928</v>
+        <v>-0.06828686991841894</v>
       </c>
       <c r="C77">
-        <v>-0.0116989416180287</v>
+        <v>-0.05900849694221959</v>
       </c>
       <c r="D77">
-        <v>-0.07139962457546224</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01106300183165359</v>
+      </c>
+      <c r="E77">
+        <v>0.04716922121826952</v>
+      </c>
+      <c r="F77">
+        <v>-0.01099738144241155</v>
+      </c>
+      <c r="G77">
+        <v>-0.06677578876735434</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.009232139034754739</v>
+        <v>-0.04300011208207705</v>
       </c>
       <c r="C78">
-        <v>-0.008295235181409982</v>
+        <v>-0.0504084228553705</v>
       </c>
       <c r="D78">
-        <v>-0.06139505634158242</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.005869025239677097</v>
+      </c>
+      <c r="E78">
+        <v>0.02838835261110775</v>
+      </c>
+      <c r="F78">
+        <v>-0.03762777126939802</v>
+      </c>
+      <c r="G78">
+        <v>-0.103208314438616</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-1.171275966933848e-05</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>9.186933363672537e-05</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-2.487536168302985e-05</v>
+      </c>
+      <c r="E79">
+        <v>0.0002562282861482309</v>
+      </c>
+      <c r="F79">
+        <v>-0.0002476380071098919</v>
+      </c>
+      <c r="G79">
+        <v>-0.0003820526636235815</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.02506783446460189</v>
+        <v>-0.04333248630830731</v>
       </c>
       <c r="C80">
-        <v>-0.02106964314275953</v>
+        <v>-0.0513801379398904</v>
       </c>
       <c r="D80">
-        <v>-0.08451231401445744</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01320699129054793</v>
+      </c>
+      <c r="E80">
+        <v>0.02470125011107116</v>
+      </c>
+      <c r="F80">
+        <v>-0.01445931461688291</v>
+      </c>
+      <c r="G80">
+        <v>-0.05367863989408849</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.03007697035082854</v>
+        <v>-0.136648012097441</v>
       </c>
       <c r="C81">
-        <v>-0.06516818302351358</v>
+        <v>-0.09553003722280569</v>
       </c>
       <c r="D81">
-        <v>-0.1692471538236076</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01482031740156342</v>
+      </c>
+      <c r="E81">
+        <v>-0.03574332404267411</v>
+      </c>
+      <c r="F81">
+        <v>0.1264674801768943</v>
+      </c>
+      <c r="G81">
+        <v>-0.02525663181864351</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1324978695807068</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.078710876980531</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.009114153487718796</v>
+      </c>
+      <c r="E82">
+        <v>-0.1010698296792321</v>
+      </c>
+      <c r="F82">
+        <v>0.04787180165339078</v>
+      </c>
+      <c r="G82">
+        <v>-0.07213276481565102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01296280712290113</v>
+        <v>-0.03611142460424236</v>
       </c>
       <c r="C83">
-        <v>-0.01501026402802474</v>
+        <v>-0.02918090429632892</v>
       </c>
       <c r="D83">
-        <v>-0.03378144950178963</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.005898188630915107</v>
+      </c>
+      <c r="E83">
+        <v>0.03091735459553938</v>
+      </c>
+      <c r="F83">
+        <v>-0.03050001362508394</v>
+      </c>
+      <c r="G83">
+        <v>-0.05836398884186662</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.051837858882925</v>
+        <v>-0.2127277401307091</v>
       </c>
       <c r="C85">
-        <v>-0.09006479009165555</v>
+        <v>-0.1469103432136139</v>
       </c>
       <c r="D85">
-        <v>-0.2754471212500644</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01742695575916668</v>
+      </c>
+      <c r="E85">
+        <v>-0.1036163947327758</v>
+      </c>
+      <c r="F85">
+        <v>0.1221989248087656</v>
+      </c>
+      <c r="G85">
+        <v>0.05985833304184787</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01364689655243068</v>
+        <v>-0.01399978316899387</v>
       </c>
       <c r="C86">
-        <v>-0.01309417586928536</v>
+        <v>-0.02746380895291162</v>
       </c>
       <c r="D86">
-        <v>-0.05333394359059671</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01171902198332377</v>
+      </c>
+      <c r="E86">
+        <v>0.05129726582209197</v>
+      </c>
+      <c r="F86">
+        <v>-0.01951602068980494</v>
+      </c>
+      <c r="G86">
+        <v>-0.1893586846609706</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.004302811049832852</v>
+        <v>-0.02114449180882194</v>
       </c>
       <c r="C87">
-        <v>0.01049400491027904</v>
+        <v>-0.02305294423880893</v>
       </c>
       <c r="D87">
-        <v>-0.04906860193115673</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01192849015906029</v>
+      </c>
+      <c r="E87">
+        <v>0.09296369714254739</v>
+      </c>
+      <c r="F87">
+        <v>-0.008958091424535349</v>
+      </c>
+      <c r="G87">
+        <v>-0.1215326075326364</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.03765853403797833</v>
+        <v>-0.09400143041428956</v>
       </c>
       <c r="C88">
-        <v>-0.0212740321608619</v>
+        <v>-0.06845162135928462</v>
       </c>
       <c r="D88">
-        <v>-0.05229542965081686</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02220578657559349</v>
+      </c>
+      <c r="E88">
+        <v>-0.002995486596693433</v>
+      </c>
+      <c r="F88">
+        <v>0.01815441459851927</v>
+      </c>
+      <c r="G88">
+        <v>-0.09623257609311302</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2079366998221287</v>
+        <v>-0.2319887825017745</v>
       </c>
       <c r="C89">
-        <v>-0.3513170268223934</v>
+        <v>0.3678713004063779</v>
       </c>
       <c r="D89">
-        <v>0.1841218830277196</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0001519770200131195</v>
+      </c>
+      <c r="E89">
+        <v>-0.01418585666216086</v>
+      </c>
+      <c r="F89">
+        <v>0.02531754901117248</v>
+      </c>
+      <c r="G89">
+        <v>-0.06940860521713815</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1655582906320709</v>
+        <v>-0.2079325860517325</v>
       </c>
       <c r="C90">
-        <v>-0.2858931978006877</v>
+        <v>0.3184427846199068</v>
       </c>
       <c r="D90">
-        <v>0.1652897175124883</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004270896376974451</v>
+      </c>
+      <c r="E90">
+        <v>0.003091405151147378</v>
+      </c>
+      <c r="F90">
+        <v>0.04756518821192964</v>
+      </c>
+      <c r="G90">
+        <v>-0.0510546561841258</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.04428040804776026</v>
+        <v>-0.1860430685398466</v>
       </c>
       <c r="C91">
-        <v>-0.1027577541441609</v>
+        <v>-0.1409137045192477</v>
       </c>
       <c r="D91">
-        <v>-0.2239297950119009</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02204541466538375</v>
+      </c>
+      <c r="E91">
+        <v>-0.06476065334427913</v>
+      </c>
+      <c r="F91">
+        <v>0.1422563798633052</v>
+      </c>
+      <c r="G91">
+        <v>-0.03662650532808341</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1297353368250982</v>
+        <v>-0.1983400963079607</v>
       </c>
       <c r="C92">
-        <v>-0.2845125045643436</v>
+        <v>0.2561464343729805</v>
       </c>
       <c r="D92">
-        <v>0.06896992261933491</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.037631933910158</v>
+      </c>
+      <c r="E92">
+        <v>0.04621813764047866</v>
+      </c>
+      <c r="F92">
+        <v>0.05864315965416567</v>
+      </c>
+      <c r="G92">
+        <v>-0.1174485299618207</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1740540112301265</v>
+        <v>-0.2314635666423002</v>
       </c>
       <c r="C93">
-        <v>-0.3115118305307324</v>
+        <v>0.3147603534102317</v>
       </c>
       <c r="D93">
-        <v>0.136238749036592</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01116053109170999</v>
+      </c>
+      <c r="E93">
+        <v>0.008495540267744217</v>
+      </c>
+      <c r="F93">
+        <v>0.04294286975538796</v>
+      </c>
+      <c r="G93">
+        <v>-0.06112965700127476</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.08730564240380782</v>
+        <v>-0.3195609974876873</v>
       </c>
       <c r="C94">
-        <v>-0.1392792917263462</v>
+        <v>-0.1780909892191523</v>
       </c>
       <c r="D94">
-        <v>-0.2949550448156615</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.01839439482779694</v>
+      </c>
+      <c r="E94">
+        <v>-0.2163428849103683</v>
+      </c>
+      <c r="F94">
+        <v>0.4798831820807143</v>
+      </c>
+      <c r="G94">
+        <v>0.4176579622154449</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.0009558416635111689</v>
+        <v>-0.1016072596148768</v>
       </c>
       <c r="C95">
-        <v>-0.01489823113667768</v>
+        <v>-0.08830335212547137</v>
       </c>
       <c r="D95">
-        <v>-0.1210459352335347</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.01023164296743634</v>
+      </c>
+      <c r="E95">
+        <v>0.0820369019800628</v>
+      </c>
+      <c r="F95">
+        <v>-0.2057638448434969</v>
+      </c>
+      <c r="G95">
+        <v>0.01457708129910185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.064953736015031</v>
+        <v>-0.1959841310617106</v>
       </c>
       <c r="C98">
-        <v>-0.1403754793411307</v>
+        <v>-0.04522128250188769</v>
       </c>
       <c r="D98">
-        <v>-0.1566686576568727</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01369217784247226</v>
+      </c>
+      <c r="E98">
+        <v>0.07146087889533731</v>
+      </c>
+      <c r="F98">
+        <v>-0.2343942350283219</v>
+      </c>
+      <c r="G98">
+        <v>0.01451349990071808</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01074276700075008</v>
+        <v>-0.009328745739614281</v>
       </c>
       <c r="C101">
-        <v>-0.006458155708098538</v>
+        <v>-0.02327234919907644</v>
       </c>
       <c r="D101">
-        <v>-0.01937284967112665</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.008864047385331466</v>
+      </c>
+      <c r="E101">
+        <v>0.003425666781158381</v>
+      </c>
+      <c r="F101">
+        <v>0.01640933953688593</v>
+      </c>
+      <c r="G101">
+        <v>-0.0954949559646103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.0336278381827339</v>
+        <v>-0.1162451904007379</v>
       </c>
       <c r="C102">
-        <v>-0.04446934873018798</v>
+        <v>-0.08381360660639452</v>
       </c>
       <c r="D102">
-        <v>-0.1333409367575564</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0008585072320304485</v>
+      </c>
+      <c r="E102">
+        <v>-0.03562533525126162</v>
+      </c>
+      <c r="F102">
+        <v>0.04080254928550241</v>
+      </c>
+      <c r="G102">
+        <v>-0.01749808555933894</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.8634634935198188</v>
+        <v>-0.02129860015583449</v>
       </c>
       <c r="C104">
-        <v>0.485592171487235</v>
+        <v>0.02979435616110215</v>
       </c>
       <c r="D104">
-        <v>0.03527446303673367</v>
+        <v>-0.9878821340815286</v>
+      </c>
+      <c r="E104">
+        <v>-0.04877683820983993</v>
+      </c>
+      <c r="F104">
+        <v>0.03374559940369299</v>
+      </c>
+      <c r="G104">
+        <v>0.03668207301777796</v>
       </c>
     </row>
   </sheetData>
